--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java\TestAntomationProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D5AF34-55D5-4FB0-AFC4-BBC36019A3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA75DB1-CD8C-432B-B48F-DD7FAC4C16DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,11 +387,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="31.77734375" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
